--- a/grupos/4ALCV - Estadisticos 2020.xlsx
+++ b/grupos/4ALCV - Estadisticos 2020.xlsx
@@ -3480,6 +3480,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4276,7 +4277,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4870,6 +4872,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4ALCV - Estadisticos 2020.xlsx
+++ b/grupos/4ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -185,12 +185,12 @@
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
+    <t>Ángel Martínez Noe Cristobal</t>
+  </si>
+  <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
-    <t>Ángel Martínez Noe Cristobal</t>
-  </si>
-  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
@@ -212,268 +212,268 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>AJACTLE</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
     <t>ALONSO</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>CARMONA</t>
   </si>
   <si>
+    <t>CANALES</t>
+  </si>
+  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>LAZARO</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>MANZANET</t>
   </si>
   <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
     <t>RIVERA</t>
   </si>
   <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
     <t>VENTURA</t>
   </si>
   <si>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
     <t>NOLASCO</t>
   </si>
   <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
     <t>ORTEGA</t>
   </si>
   <si>
+    <t>VERA</t>
+  </si>
+  <si>
     <t>MARROQUIN</t>
   </si>
   <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>SALGADO</t>
   </si>
   <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
     <t>ROQUE</t>
   </si>
   <si>
     <t>ANDRADE</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
     <t>TEZOCO</t>
   </si>
   <si>
+    <t>FERRAL</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
     <t>ZEPEDA</t>
   </si>
   <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>BITHIA MARIAN</t>
+  </si>
+  <si>
+    <t>IRIDIA</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
     <t>ESDRAS ALAN</t>
   </si>
   <si>
     <t>MELISSA VIANNEY</t>
   </si>
   <si>
+    <t>BRENDA JANET</t>
+  </si>
+  <si>
     <t>JOANNA GUADALUPE</t>
   </si>
   <si>
+    <t>ADOLFO ANTONIO</t>
+  </si>
+  <si>
     <t>EDITH</t>
   </si>
   <si>
     <t>JHOVANA</t>
   </si>
   <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
     <t>ROBERTO JESUS</t>
   </si>
   <si>
+    <t>ANGEL ALEXIS</t>
+  </si>
+  <si>
     <t>CONCEPCION</t>
   </si>
   <si>
     <t>JADE EMILY</t>
   </si>
   <si>
+    <t>ANGEL JARET</t>
+  </si>
+  <si>
+    <t>KARLA MICHEL</t>
+  </si>
+  <si>
     <t>ALLISSON NICOLE</t>
   </si>
   <si>
     <t>KARLA</t>
   </si>
   <si>
+    <t>ROSA JATZIRI</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>VALERIA GUADALUPE</t>
+  </si>
+  <si>
     <t>ESMERALDA</t>
   </si>
   <si>
+    <t>NELLY MARLENE</t>
+  </si>
+  <si>
+    <t>CECILIA ARLETH</t>
+  </si>
+  <si>
+    <t>LAISHA STEFANY</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>DANA YARELI</t>
+  </si>
+  <si>
     <t>ANGEL ISAURO</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CANALES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LAZARO</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>FERRAL</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>BITHIA MARIAN</t>
-  </si>
-  <si>
-    <t>IRIDIA</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>BRENDA JANET</t>
-  </si>
-  <si>
-    <t>ADOLFO ANTONIO</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>AZAEL</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>ANGEL ALEXIS</t>
-  </si>
-  <si>
-    <t>ANGEL JARET</t>
-  </si>
-  <si>
-    <t>KARLA MICHEL</t>
-  </si>
-  <si>
-    <t>ROSA JATZIRI</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>VALERIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>NELLY MARLENE</t>
-  </si>
-  <si>
-    <t>CECILIA ARLETH</t>
-  </si>
-  <si>
-    <t>LAISHA STEFANY</t>
-  </si>
-  <si>
-    <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
-    <t>DANA YARELI</t>
   </si>
   <si>
     <t>ORIEL</t>
@@ -975,22 +975,22 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1043,22 +1043,22 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1111,22 +1111,22 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1158,7 +1158,7 @@
         <v>-1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1170,16 +1170,16 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -1247,7 +1247,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1256,13 +1256,13 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1294,7 +1294,7 @@
         <v>-1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1303,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1315,7 +1315,7 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -1324,13 +1324,13 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1383,22 +1383,22 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1430,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1442,7 +1442,7 @@
         <v>8</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1451,7 +1451,7 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -1498,7 +1498,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1519,22 +1519,22 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K12">
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1566,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1581,28 +1581,28 @@
         <v>8</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1655,22 +1655,22 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>-1</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1723,22 +1723,22 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1791,22 +1791,22 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1838,7 +1838,7 @@
         <v>-1</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1847,19 +1847,19 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>-1</v>
@@ -1927,22 +1927,22 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -1974,7 +1974,7 @@
         <v>-1</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1983,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -1995,7 +1995,7 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <v>-1</v>
@@ -2042,7 +2042,7 @@
         <v>-1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -2051,19 +2051,19 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>-1</v>
@@ -2131,22 +2131,22 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2199,22 +2199,22 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2246,7 +2246,7 @@
         <v>-1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2255,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -2267,7 +2267,7 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>-1</v>
@@ -2276,13 +2276,13 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -2335,13 +2335,13 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K24">
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2403,22 +2403,22 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2471,22 +2471,22 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2539,22 +2539,22 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K27">
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2586,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2607,7 +2607,7 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>-1</v>
@@ -2616,7 +2616,7 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2675,22 +2675,22 @@
         <v>-1</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K29">
         <v>-1</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2743,22 +2743,22 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>-1</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2811,22 +2811,22 @@
         <v>-1</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>-1</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2879,7 +2879,7 @@
         <v>-1</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2888,13 +2888,13 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -2947,22 +2947,22 @@
         <v>-1</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3015,22 +3015,22 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <v>-1</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3062,7 +3062,7 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3071,34 +3071,34 @@
         <v>7</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K35">
         <v>-1</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3151,22 +3151,22 @@
         <v>-1</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K36">
         <v>-1</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3286,30 +3286,30 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>72.73</v>
+      </c>
+      <c r="G3">
+        <v>27.27</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>63.64</v>
-      </c>
-      <c r="G3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7.6</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>36.36</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3318,25 +3318,25 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>72.73</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="G4">
-        <v>9.09</v>
+        <v>24.24</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>18.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3385,22 +3385,22 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>84.84999999999999</v>
       </c>
       <c r="G6">
+        <v>15.15</v>
+      </c>
+      <c r="H6">
+        <v>7.7</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
       <c r="J6">
-        <v>15.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3417,22 +3417,22 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>84.84999999999999</v>
       </c>
       <c r="G7">
+        <v>15.15</v>
+      </c>
+      <c r="H7">
+        <v>8.1</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
       <c r="J7">
-        <v>15.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3474,7 +3474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920273</v>
+        <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -3515,18 +3515,18 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920273</v>
+        <v>19330051920270</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -3535,107 +3535,107 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920273</v>
+        <v>19330051920272</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920271</v>
+        <v>19330051920272</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920271</v>
+        <v>19330051920272</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920271</v>
+        <v>19330051920269</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920271</v>
+        <v>19330051920269</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3646,16 +3646,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920271</v>
+        <v>19330051920273</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -3666,59 +3666,59 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920442</v>
+        <v>19330051920273</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920442</v>
+        <v>19330051920273</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920242</v>
+        <v>19330051920271</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
@@ -3726,56 +3726,56 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920321</v>
+        <v>19330051920271</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920321</v>
+        <v>19330051920271</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920420</v>
+        <v>19330051920271</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -3786,276 +3786,276 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920420</v>
+        <v>19330051920271</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920420</v>
+        <v>19330051920271</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920420</v>
+        <v>19330051920268</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920420</v>
+        <v>19330051920268</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920420</v>
+        <v>19330051920442</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920284</v>
+        <v>19330051920442</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920284</v>
+        <v>19330051920442</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920284</v>
+        <v>19330051920442</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920284</v>
+        <v>19330051920442</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920286</v>
+        <v>19330051920442</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920286</v>
+        <v>19330051920274</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920286</v>
+        <v>19330051920274</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920286</v>
+        <v>18330051920242</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920286</v>
+        <v>18330051920242</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -4066,16 +4066,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920286</v>
+        <v>18330051920321</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -4086,182 +4086,1382 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920343</v>
+        <v>18330051920321</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920343</v>
+        <v>18330051920321</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920343</v>
+        <v>19330051920278</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920292</v>
+        <v>19330051920278</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920295</v>
+        <v>19330051920278</v>
       </c>
       <c r="B35" t="s">
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920304</v>
+        <v>19330051920449</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920304</v>
+        <v>19330051920449</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920304</v>
+        <v>19330051920279</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920304</v>
+        <v>19330051920279</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>19330051920420</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>19330051920420</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>19330051920420</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>19330051920420</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>19330051920420</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>19330051920420</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>19330051920447</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>19330051920447</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>19330051920284</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>19330051920284</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>19330051920284</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>19330051920284</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>19330051920284</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>19330051920284</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>19330051920286</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>19330051920286</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>19330051920286</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>19330051920286</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>19330051920286</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>19330051920286</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>19330051920287</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>19330051920287</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>19330051920289</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>19330051920289</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19330051920343</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>19330051920343</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>19330051920343</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>19330051920292</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>19330051920292</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>19330051920292</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19330051920292</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>19330051920292</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>19330051920293</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>19330051920293</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19330051920294</v>
+      </c>
+      <c r="B74" t="s">
         <v>85</v>
       </c>
-      <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920294</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920296</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920296</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920295</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19330051920295</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>19330051920295</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>19330051920295</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>19330051920295</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D82" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>19330051920297</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>19330051920297</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>19330051920298</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>19330051920298</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>19330051920299</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>19330051920299</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>19330051920301</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>19330051920301</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>19330051920443</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>19330051920443</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>19330051920443</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" t="s">
+        <v>149</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>19330051920300</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>19330051920300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>19330051920304</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>19330051920304</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>19330051920305</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" t="s">
+        <v>152</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>19330051920305</v>
+      </c>
+      <c r="B99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4300,220 +5500,220 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920420</v>
+        <v>19330051920271</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920286</v>
+        <v>19330051920420</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920271</v>
+        <v>19330051920284</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920284</v>
+        <v>19330051920286</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920304</v>
+        <v>19330051920273</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920273</v>
+        <v>19330051920343</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920343</v>
+        <v>19330051920270</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920442</v>
+        <v>19330051920272</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920321</v>
+        <v>19330051920269</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920242</v>
+        <v>19330051920268</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920292</v>
+        <v>19330051920442</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920295</v>
+        <v>19330051920274</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920270</v>
+        <v>18330051920242</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4521,16 +5721,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920272</v>
+        <v>18330051920321</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4538,16 +5738,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920269</v>
+        <v>19330051920278</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4555,16 +5755,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920268</v>
+        <v>19330051920449</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4572,16 +5772,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920274</v>
+        <v>19330051920279</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4589,16 +5789,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920278</v>
+        <v>19330051920447</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4606,16 +5806,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920449</v>
+        <v>19330051920287</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4623,16 +5823,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920279</v>
+        <v>19330051920289</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4640,13 +5840,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920447</v>
+        <v>19330051920292</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
@@ -4657,13 +5857,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920287</v>
+        <v>19330051920293</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>142</v>
@@ -4674,13 +5874,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920289</v>
+        <v>19330051920294</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>143</v>
@@ -4691,13 +5891,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920293</v>
+        <v>19330051920296</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>144</v>
@@ -4708,13 +5908,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920294</v>
+        <v>19330051920295</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>145</v>
@@ -4725,13 +5925,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920296</v>
+        <v>19330051920297</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>146</v>
@@ -4742,16 +5942,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920297</v>
+        <v>19330051920298</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4759,16 +5959,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920298</v>
+        <v>19330051920299</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4776,13 +5976,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920299</v>
+        <v>19330051920301</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
         <v>148</v>
@@ -4793,13 +5993,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920301</v>
+        <v>19330051920443</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
         <v>149</v>
@@ -4810,13 +6010,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920443</v>
+        <v>19330051920300</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
@@ -4827,13 +6027,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920300</v>
+        <v>19330051920304</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
@@ -4847,10 +6047,10 @@
         <v>19330051920305</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
         <v>152</v>
@@ -4866,7 +6066,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4901,39 +6101,39 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920292</v>
+        <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920292</v>
+        <v>19330051920270</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -4942,7 +6142,7 @@
         <v>54</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4950,36 +6150,36 @@
         <v>19330051920269</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920268</v>
+        <v>19330051920269</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -4993,45 +6193,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920242</v>
+        <v>19330051920268</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920298</v>
+        <v>19330051920268</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5039,25 +6239,738 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920443</v>
+        <v>19330051920274</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920449</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920279</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920279</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920447</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920447</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920287</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920287</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920289</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920289</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920293</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920294</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920294</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920296</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920296</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920297</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920297</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920298</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920298</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920299</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920299</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920301</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920301</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920300</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
         <v>150</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920300</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
         <v>54</v>
       </c>
-      <c r="G8">
-        <v>5</v>
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>19330051920305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>19330051920305</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ALCV - Estadisticos 2020.xlsx
+++ b/grupos/4ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -185,10 +185,10 @@
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
     <t>Ángel Martínez Noe Cristobal</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
     <t>Muñoz Rivadeneyra Salvador</t>
@@ -972,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -1108,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -1253,7 +1253,7 @@
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>8</v>
@@ -1291,7 +1291,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1516,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J12">
         <v>7</v>
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>7</v>
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1720,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1788,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1835,7 +1835,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1924,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         <v>8</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <v>7</v>
@@ -2243,7 +2243,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -2264,7 +2264,7 @@
         <v>6</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2400,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>6</v>
@@ -2468,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -2536,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>7</v>
@@ -2613,13 +2613,13 @@
         <v>-1</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>5</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -2672,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J29">
         <v>9</v>
@@ -2740,7 +2740,7 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J30">
         <v>10</v>
@@ -2808,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J31">
         <v>10</v>
@@ -2944,7 +2944,7 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J33">
         <v>10</v>
@@ -3012,7 +3012,7 @@
         <v>9</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J34">
         <v>7</v>
@@ -3080,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <v>5</v>
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J36">
         <v>9</v>
@@ -3254,30 +3254,27 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>57.58</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>33.33</v>
-      </c>
-      <c r="H2">
-        <v>7.2</v>
+        <v>90.91</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J2">
-        <v>9.09</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3286,19 +3283,19 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>72.73</v>
+        <v>63.64</v>
       </c>
       <c r="G3">
-        <v>27.27</v>
+        <v>36.36</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3309,7 +3306,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3318,25 +3315,25 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>75.76000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="G4">
-        <v>24.24</v>
+        <v>30.3</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3350,30 +3347,30 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>81.81999999999999</v>
+        <v>72.73</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>18.18</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>18.18</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -3382,89 +3379,89 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>84.84999999999999</v>
+        <v>72.73</v>
       </c>
       <c r="G6">
-        <v>15.15</v>
+        <v>27.27</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>33</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>84.84999999999999</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="G7">
-        <v>15.15</v>
+        <v>21.21</v>
       </c>
       <c r="H7">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>33</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>96.97</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>21.21</v>
       </c>
       <c r="H8">
-        <v>7.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>3.03</v>
+        <v>21.21</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3471,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3518,24 +3515,24 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920270</v>
+        <v>19330051920272</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -3546,56 +3543,56 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920272</v>
+        <v>19330051920269</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920272</v>
+        <v>19330051920273</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920272</v>
+        <v>19330051920273</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -3606,16 +3603,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920269</v>
+        <v>19330051920273</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -3626,76 +3623,76 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920269</v>
+        <v>19330051920271</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3718,10 +3715,10 @@
         <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3738,44 +3735,44 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920271</v>
+        <v>19330051920268</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920271</v>
+        <v>19330051920442</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -3786,82 +3783,82 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920271</v>
+        <v>19330051920442</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920271</v>
+        <v>19330051920442</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920268</v>
+        <v>19330051920442</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920268</v>
+        <v>19330051920442</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3878,164 +3875,164 @@
         <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920442</v>
+        <v>19330051920274</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920442</v>
+        <v>18330051920242</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920442</v>
+        <v>18330051920321</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920442</v>
+        <v>18330051920321</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920442</v>
+        <v>19330051920278</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920274</v>
+        <v>19330051920278</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920274</v>
+        <v>19330051920449</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920242</v>
+        <v>19330051920279</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -4046,36 +4043,36 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920242</v>
+        <v>19330051920420</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920321</v>
+        <v>19330051920420</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -4086,116 +4083,116 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920321</v>
+        <v>19330051920420</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920321</v>
+        <v>19330051920420</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920278</v>
+        <v>19330051920420</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920278</v>
+        <v>19330051920447</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920278</v>
+        <v>19330051920284</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920449</v>
+        <v>19330051920284</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -4206,196 +4203,196 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920449</v>
+        <v>19330051920284</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920279</v>
+        <v>19330051920284</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920279</v>
+        <v>19330051920284</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920420</v>
+        <v>19330051920284</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920447</v>
+        <v>19330051920286</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -4406,76 +4403,76 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920447</v>
+        <v>19330051920287</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920284</v>
+        <v>19330051920287</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920284</v>
+        <v>19330051920289</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920284</v>
+        <v>19330051920343</v>
       </c>
       <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
         <v>78</v>
       </c>
-      <c r="C50" t="s">
-        <v>108</v>
-      </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -4486,16 +4483,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920284</v>
+        <v>19330051920343</v>
       </c>
       <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
         <v>78</v>
       </c>
-      <c r="C51" t="s">
-        <v>108</v>
-      </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -4506,39 +4503,39 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920284</v>
+        <v>19330051920292</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920284</v>
+        <v>19330051920292</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>58</v>
@@ -4546,39 +4543,39 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920286</v>
+        <v>19330051920292</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920286</v>
+        <v>19330051920292</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
@@ -4586,76 +4583,76 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920286</v>
+        <v>19330051920292</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920286</v>
+        <v>19330051920293</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920286</v>
+        <v>19330051920294</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920286</v>
+        <v>19330051920296</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
@@ -4666,76 +4663,76 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920287</v>
+        <v>19330051920295</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920287</v>
+        <v>19330051920295</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920289</v>
+        <v>19330051920295</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920289</v>
+        <v>19330051920297</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -4746,36 +4743,36 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920343</v>
+        <v>19330051920298</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920343</v>
+        <v>19330051920299</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -4786,681 +4783,141 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920343</v>
+        <v>19330051920301</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920292</v>
+        <v>19330051920443</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920292</v>
+        <v>19330051920443</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920292</v>
+        <v>19330051920443</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920292</v>
+        <v>19330051920300</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920292</v>
+        <v>19330051920304</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920293</v>
+        <v>19330051920305</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920293</v>
-      </c>
-      <c r="B73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920294</v>
-      </c>
-      <c r="B74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" t="s">
-        <v>143</v>
-      </c>
-      <c r="E74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920294</v>
-      </c>
-      <c r="B75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" t="s">
-        <v>143</v>
-      </c>
-      <c r="E75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920296</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" t="s">
-        <v>144</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920296</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" t="s">
-        <v>144</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920295</v>
-      </c>
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920295</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" t="s">
-        <v>145</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920295</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920295</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920295</v>
-      </c>
-      <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920297</v>
-      </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" t="s">
-        <v>146</v>
-      </c>
-      <c r="E83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920297</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920298</v>
-      </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" t="s">
-        <v>144</v>
-      </c>
-      <c r="E85" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920298</v>
-      </c>
-      <c r="B86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920299</v>
-      </c>
-      <c r="B87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920299</v>
-      </c>
-      <c r="B88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" t="s">
-        <v>116</v>
-      </c>
-      <c r="D88" t="s">
-        <v>147</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920301</v>
-      </c>
-      <c r="B89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" t="s">
-        <v>148</v>
-      </c>
-      <c r="E89" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920301</v>
-      </c>
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" t="s">
-        <v>117</v>
-      </c>
-      <c r="D90" t="s">
-        <v>148</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920443</v>
-      </c>
-      <c r="B91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" t="s">
-        <v>149</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920443</v>
-      </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920443</v>
-      </c>
-      <c r="B93" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" t="s">
-        <v>118</v>
-      </c>
-      <c r="D93" t="s">
-        <v>149</v>
-      </c>
-      <c r="E93" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920300</v>
-      </c>
-      <c r="B94" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920300</v>
-      </c>
-      <c r="B95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920304</v>
-      </c>
-      <c r="B96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920304</v>
-      </c>
-      <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920305</v>
-      </c>
-      <c r="B98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" t="s">
-        <v>152</v>
-      </c>
-      <c r="E98" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920305</v>
-      </c>
-      <c r="B99" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" t="s">
-        <v>152</v>
-      </c>
-      <c r="E99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5512,24 +4969,24 @@
         <v>125</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920420</v>
+        <v>19330051920442</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5546,7 +5003,7 @@
         <v>136</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5563,449 +5020,449 @@
         <v>137</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920273</v>
+        <v>19330051920420</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920343</v>
+        <v>19330051920292</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920270</v>
+        <v>19330051920273</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920272</v>
+        <v>19330051920295</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920269</v>
+        <v>19330051920443</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920268</v>
+        <v>18330051920321</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920442</v>
+        <v>19330051920278</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920274</v>
+        <v>19330051920287</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920242</v>
+        <v>19330051920343</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920321</v>
+        <v>19330051920270</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920278</v>
+        <v>19330051920272</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920449</v>
+        <v>19330051920269</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920279</v>
+        <v>19330051920268</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920447</v>
+        <v>19330051920274</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920287</v>
+        <v>18330051920242</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920289</v>
+        <v>19330051920449</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920292</v>
+        <v>19330051920279</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920293</v>
+        <v>19330051920447</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920294</v>
+        <v>19330051920289</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920296</v>
+        <v>19330051920293</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920295</v>
+        <v>19330051920294</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920297</v>
+        <v>19330051920296</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920298</v>
+        <v>19330051920297</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920299</v>
+        <v>19330051920298</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920301</v>
+        <v>19330051920299</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920443</v>
+        <v>19330051920301</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6022,7 +5479,7 @@
         <v>150</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6039,7 +5496,7 @@
         <v>151</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6056,7 +5513,7 @@
         <v>152</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6066,7 +5523,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6096,67 +5553,67 @@
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920270</v>
+        <v>18330051920321</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920270</v>
+        <v>18330051920321</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920269</v>
+        <v>19330051920287</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -6165,21 +5622,21 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920269</v>
+        <v>19330051920287</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -6188,44 +5645,44 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920268</v>
+        <v>19330051920270</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920268</v>
+        <v>19330051920272</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -6234,44 +5691,44 @@
         <v>54</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920274</v>
+        <v>19330051920269</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920274</v>
+        <v>19330051920268</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -6280,30 +5737,30 @@
         <v>54</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920242</v>
+        <v>19330051920274</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6326,7 +5783,7 @@
         <v>54</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6343,27 +5800,27 @@
         <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920449</v>
+        <v>19330051920279</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -6372,44 +5829,44 @@
         <v>54</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920279</v>
+        <v>19330051920447</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920279</v>
+        <v>19330051920289</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -6418,44 +5875,44 @@
         <v>54</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920447</v>
+        <v>19330051920293</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920447</v>
+        <v>19330051920294</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -6464,44 +5921,44 @@
         <v>54</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920287</v>
+        <v>19330051920296</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920287</v>
+        <v>19330051920297</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -6510,44 +5967,44 @@
         <v>54</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920289</v>
+        <v>19330051920298</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920289</v>
+        <v>19330051920299</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -6556,44 +6013,44 @@
         <v>54</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920293</v>
+        <v>19330051920301</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19330051920293</v>
+        <v>19330051920300</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -6602,375 +6059,30 @@
         <v>54</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19330051920294</v>
+        <v>19330051920305</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>19330051920294</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>19330051920296</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>19330051920296</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>19330051920297</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>19330051920297</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>19330051920298</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>19330051920298</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>19330051920299</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>19330051920299</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>19330051920301</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>19330051920301</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>19330051920300</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>19330051920300</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>19330051920305</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>19330051920305</v>
-      </c>
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ALCV - Estadisticos 2020.xlsx
+++ b/grupos/4ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -212,6 +212,135 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
+    <t>CARMONA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MANZANET</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>ESDRAS ALAN</t>
+  </si>
+  <si>
+    <t>MELISSA VIANNEY</t>
+  </si>
+  <si>
+    <t>JOANNA GUADALUPE</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>ROBERTO JESUS</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>JADE EMILY</t>
+  </si>
+  <si>
+    <t>ANGEL JARET</t>
+  </si>
+  <si>
+    <t>KARLA MICHEL</t>
+  </si>
+  <si>
+    <t>ALLISSON NICOLE</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>ANGEL ISAURO</t>
+  </si>
+  <si>
     <t>ALCANTARA</t>
   </si>
   <si>
@@ -221,66 +350,27 @@
     <t>AJACTLE</t>
   </si>
   <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>CARMONA</t>
-  </si>
-  <si>
     <t>CANALES</t>
   </si>
   <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>LAZARO</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MANZANET</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
     <t>SALAZAR</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>SERRANO</t>
   </si>
   <si>
@@ -293,78 +383,39 @@
     <t>TZANAHUA</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>TREJO</t>
   </si>
   <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
     <t>XALAMIHUA</t>
   </si>
   <si>
     <t>OLMOS</t>
   </si>
   <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
     <t>SEGURA</t>
   </si>
   <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
     <t>VERA</t>
   </si>
   <si>
     <t>MARROQUIN</t>
   </si>
   <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
     <t>OFICIAL</t>
   </si>
   <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
     <t>VARGAS</t>
   </si>
   <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
     <t>ROMERO</t>
   </si>
   <si>
     <t>SANTOS</t>
   </si>
   <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
     <t>FERRAL</t>
   </si>
   <si>
@@ -374,12 +425,6 @@
     <t>GUEVARA</t>
   </si>
   <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
     <t>ZOPIYACTLE</t>
   </si>
   <si>
@@ -392,60 +437,24 @@
     <t>ELISA</t>
   </si>
   <si>
-    <t>ESDRAS ALAN</t>
-  </si>
-  <si>
-    <t>MELISSA VIANNEY</t>
-  </si>
-  <si>
     <t>BRENDA JANET</t>
   </si>
   <si>
-    <t>JOANNA GUADALUPE</t>
-  </si>
-  <si>
     <t>ADOLFO ANTONIO</t>
   </si>
   <si>
     <t>EDITH</t>
   </si>
   <si>
-    <t>JHOVANA</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
     <t>AZAEL</t>
   </si>
   <si>
     <t>FELIPE</t>
   </si>
   <si>
-    <t>ROBERTO JESUS</t>
-  </si>
-  <si>
     <t>ANGEL ALEXIS</t>
   </si>
   <si>
-    <t>CONCEPCION</t>
-  </si>
-  <si>
-    <t>JADE EMILY</t>
-  </si>
-  <si>
-    <t>ANGEL JARET</t>
-  </si>
-  <si>
-    <t>KARLA MICHEL</t>
-  </si>
-  <si>
-    <t>ALLISSON NICOLE</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
     <t>ROSA JATZIRI</t>
   </si>
   <si>
@@ -455,9 +464,6 @@
     <t>VALERIA GUADALUPE</t>
   </si>
   <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
     <t>NELLY MARLENE</t>
   </si>
   <si>
@@ -467,13 +473,7 @@
     <t>LAISHA STEFANY</t>
   </si>
   <si>
-    <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
     <t>DANA YARELI</t>
-  </si>
-  <si>
-    <t>ANGEL ISAURO</t>
   </si>
   <si>
     <t>ORIEL</t>
@@ -978,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>8</v>
@@ -1046,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1114,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -1386,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -1522,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>9</v>
@@ -1590,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -1726,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -1794,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>9</v>
@@ -1930,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>8</v>
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>9</v>
@@ -2270,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2406,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -2474,7 +2474,7 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <v>8</v>
@@ -2542,7 +2542,7 @@
         <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
         <v>8</v>
@@ -2678,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>8</v>
@@ -2746,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L30">
         <v>8</v>
@@ -2814,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L31">
         <v>9</v>
@@ -2882,7 +2882,7 @@
         <v>5</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2950,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L33">
         <v>9</v>
@@ -3018,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L34">
         <v>8</v>
@@ -3154,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L36">
         <v>9</v>
@@ -3254,22 +3254,25 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="G2">
-        <v>90.91</v>
+        <v>27.27</v>
+      </c>
+      <c r="H2">
+        <v>7.9</v>
       </c>
       <c r="I2">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3471,7 +3474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3503,36 +3506,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920270</v>
+        <v>19330051920273</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920272</v>
+        <v>19330051920273</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -3543,82 +3546,82 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920269</v>
+        <v>19330051920273</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3626,19 +3629,19 @@
         <v>19330051920271</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3646,19 +3649,19 @@
         <v>19330051920271</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3666,93 +3669,93 @@
         <v>19330051920271</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920271</v>
+        <v>19330051920442</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920271</v>
+        <v>19330051920442</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920271</v>
+        <v>19330051920442</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920268</v>
+        <v>19330051920442</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -3766,19 +3769,19 @@
         <v>19330051920442</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3786,73 +3789,73 @@
         <v>19330051920442</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920442</v>
+        <v>18330051920321</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920442</v>
+        <v>19330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920442</v>
+        <v>19330051920278</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -3863,56 +3866,56 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920442</v>
+        <v>19330051920420</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920274</v>
+        <v>19330051920420</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920242</v>
+        <v>19330051920420</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -3923,16 +3926,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920321</v>
+        <v>19330051920420</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -3943,59 +3946,59 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920321</v>
+        <v>19330051920420</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920278</v>
+        <v>19330051920284</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920278</v>
+        <v>19330051920284</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>58</v>
@@ -4003,16 +4006,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920449</v>
+        <v>19330051920284</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -4023,299 +4026,299 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920279</v>
+        <v>19330051920284</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920420</v>
+        <v>19330051920284</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920420</v>
+        <v>19330051920284</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920447</v>
+        <v>19330051920286</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920284</v>
+        <v>19330051920286</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920284</v>
+        <v>19330051920286</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920284</v>
+        <v>19330051920287</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920284</v>
+        <v>19330051920289</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920284</v>
+        <v>19330051920343</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920284</v>
+        <v>19330051920292</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920286</v>
+        <v>19330051920292</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920286</v>
+        <v>19330051920292</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>58</v>
@@ -4323,76 +4326,76 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920286</v>
+        <v>19330051920292</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920286</v>
+        <v>19330051920292</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920286</v>
+        <v>19330051920295</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920286</v>
+        <v>19330051920295</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -4403,36 +4406,36 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920287</v>
+        <v>19330051920295</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920287</v>
+        <v>19330051920443</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -4443,481 +4446,41 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920289</v>
+        <v>19330051920443</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920343</v>
+        <v>19330051920304</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920343</v>
-      </c>
-      <c r="B51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920292</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920292</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920292</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920292</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920292</v>
-      </c>
-      <c r="B56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920293</v>
-      </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920294</v>
-      </c>
-      <c r="B58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920296</v>
-      </c>
-      <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920295</v>
-      </c>
-      <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920295</v>
-      </c>
-      <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920295</v>
-      </c>
-      <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920297</v>
-      </c>
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920298</v>
-      </c>
-      <c r="B64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920299</v>
-      </c>
-      <c r="B65" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" t="s">
-        <v>147</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920301</v>
-      </c>
-      <c r="B66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920443</v>
-      </c>
-      <c r="B67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920443</v>
-      </c>
-      <c r="B68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920443</v>
-      </c>
-      <c r="B69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" t="s">
-        <v>149</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920300</v>
-      </c>
-      <c r="B70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920304</v>
-      </c>
-      <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920305</v>
-      </c>
-      <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4960,13 +4523,13 @@
         <v>19330051920271</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -4977,13 +4540,13 @@
         <v>19330051920442</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -4994,13 +4557,13 @@
         <v>19330051920284</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -5011,13 +4574,13 @@
         <v>19330051920286</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -5028,13 +4591,13 @@
         <v>19330051920420</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -5045,13 +4608,13 @@
         <v>19330051920292</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -5062,13 +4625,13 @@
         <v>19330051920273</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5079,13 +4642,13 @@
         <v>19330051920295</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5093,33 +4656,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920443</v>
+        <v>19330051920278</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920321</v>
+        <v>19330051920443</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -5127,19 +4690,19 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920278</v>
+        <v>18330051920321</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5147,47 +4710,47 @@
         <v>19330051920287</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920343</v>
+        <v>19330051920289</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920270</v>
+        <v>19330051920343</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5195,16 +4758,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920272</v>
+        <v>19330051920304</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5212,291 +4775,291 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920269</v>
+        <v>19330051920270</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920268</v>
+        <v>19330051920272</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920274</v>
+        <v>19330051920269</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920242</v>
+        <v>19330051920268</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920449</v>
+        <v>19330051920274</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920279</v>
+        <v>18330051920242</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920447</v>
+        <v>19330051920449</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920289</v>
+        <v>19330051920279</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920293</v>
+        <v>19330051920447</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920294</v>
+        <v>19330051920293</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920296</v>
+        <v>19330051920294</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920297</v>
+        <v>19330051920296</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920298</v>
+        <v>19330051920297</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920299</v>
+        <v>19330051920298</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
         <v>147</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920301</v>
+        <v>19330051920299</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920300</v>
+        <v>19330051920301</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920304</v>
+        <v>19330051920300</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5504,16 +5067,16 @@
         <v>19330051920305</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
         <v>152</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5086,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5561,19 +5124,19 @@
         <v>18330051920321</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5581,22 +5144,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920321</v>
+        <v>19330051920287</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5604,484 +5167,24 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920287</v>
+        <v>19330051920289</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920287</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920270</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920272</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920269</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920268</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920274</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920242</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920449</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920279</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920447</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920289</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920293</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920294</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920296</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920297</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920298</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920299</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920301</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920300</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920305</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4ALCV - Estadisticos 2020.xlsx
+++ b/grupos/4ALCV - Estadisticos 2020.xlsx
@@ -3518,10 +3518,10 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3538,10 +3538,10 @@
         <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3558,10 +3558,10 @@
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3578,10 +3578,10 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3598,10 +3598,10 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3618,10 +3618,10 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3638,10 +3638,10 @@
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3658,10 +3658,10 @@
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3678,10 +3678,10 @@
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3978,10 +3978,10 @@
         <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3998,10 +3998,10 @@
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4038,10 +4038,10 @@
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4058,10 +4058,10 @@
         <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4078,10 +4078,10 @@
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4098,10 +4098,10 @@
         <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4138,10 +4138,10 @@
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4178,10 +4178,10 @@
         <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4198,10 +4198,10 @@
         <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">

--- a/grupos/4ALCV - Estadisticos 2020.xlsx
+++ b/grupos/4ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -1191,7 +1191,7 @@
         <v>-1</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -1463,7 +1463,7 @@
         <v>-1</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -3394,13 +3394,13 @@
         <v>27.27</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>24.24</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3474,7 +3474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3666,22 +3666,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920271</v>
+        <v>19330051920442</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3698,10 +3698,10 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3738,10 +3738,10 @@
         <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3758,27 +3758,27 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920442</v>
+        <v>18330051920321</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -3786,36 +3786,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920442</v>
+        <v>19330051920278</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920321</v>
+        <v>19330051920278</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -3826,42 +3826,42 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920278</v>
+        <v>19330051920420</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920278</v>
+        <v>19330051920420</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3878,10 +3878,10 @@
         <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3898,10 +3898,10 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3918,50 +3918,50 @@
         <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920420</v>
+        <v>19330051920284</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920420</v>
+        <v>19330051920284</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3978,10 +3978,10 @@
         <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3998,10 +3998,10 @@
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4018,10 +4018,10 @@
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4038,50 +4038,50 @@
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920284</v>
+        <v>19330051920286</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920284</v>
+        <v>19330051920286</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4098,10 +4098,10 @@
         <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4118,10 +4118,10 @@
         <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4138,10 +4138,10 @@
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4158,84 +4158,84 @@
         <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920286</v>
+        <v>19330051920287</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920286</v>
+        <v>19330051920289</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920287</v>
+        <v>19330051920343</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920289</v>
+        <v>19330051920292</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920343</v>
+        <v>19330051920292</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4278,10 +4278,10 @@
         <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4298,10 +4298,10 @@
         <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4326,36 +4326,36 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920292</v>
+        <v>19330051920295</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920292</v>
+        <v>19330051920295</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -4378,44 +4378,44 @@
         <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920295</v>
+        <v>19330051920443</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920295</v>
+        <v>19330051920443</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -4426,61 +4426,21 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920443</v>
+        <v>19330051920304</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920443</v>
-      </c>
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920304</v>
-      </c>
-      <c r="B50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4520,16 +4480,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920271</v>
+        <v>19330051920284</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -4537,16 +4497,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920442</v>
+        <v>19330051920286</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -4554,36 +4514,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920284</v>
+        <v>19330051920271</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920286</v>
+        <v>19330051920442</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/grupos/4ALCV - Estadisticos 2020.xlsx
+++ b/grupos/4ALCV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -191,12 +191,12 @@
     <t>Ángel Martínez Noe Cristobal</t>
   </si>
   <si>
+    <t>Rivera Serra Alma Lilian</t>
+  </si>
+  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
-    <t>Rivera Serra Alma Lilian</t>
-  </si>
-  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
@@ -236,223 +236,223 @@
     <t>MANZANET</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>ESDRAS ALAN</t>
+  </si>
+  <si>
+    <t>MELISSA VIANNEY</t>
+  </si>
+  <si>
+    <t>JOANNA GUADALUPE</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>ROBERTO JESUS</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>JADE EMILY</t>
+  </si>
+  <si>
+    <t>KARLA MICHEL</t>
+  </si>
+  <si>
+    <t>ALLISSON NICOLE</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>ANGEL ISAURO</t>
+  </si>
+  <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>AJACTLE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CANALES</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LAZARO</t>
+  </si>
+  <si>
     <t>MARQUEZ</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>ESDRAS ALAN</t>
-  </si>
-  <si>
-    <t>MELISSA VIANNEY</t>
-  </si>
-  <si>
-    <t>JOANNA GUADALUPE</t>
-  </si>
-  <si>
-    <t>JHOVANA</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>ROBERTO JESUS</t>
-  </si>
-  <si>
-    <t>CONCEPCION</t>
-  </si>
-  <si>
-    <t>JADE EMILY</t>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>FERRAL</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>BITHIA MARIAN</t>
+  </si>
+  <si>
+    <t>IRIDIA</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>BRENDA JANET</t>
+  </si>
+  <si>
+    <t>ADOLFO ANTONIO</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>ANGEL ALEXIS</t>
   </si>
   <si>
     <t>ANGEL JARET</t>
-  </si>
-  <si>
-    <t>KARLA MICHEL</t>
-  </si>
-  <si>
-    <t>ALLISSON NICOLE</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
-    <t>ANGEL ISAURO</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CANALES</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LAZARO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>FERRAL</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>BITHIA MARIAN</t>
-  </si>
-  <si>
-    <t>IRIDIA</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>BRENDA JANET</t>
-  </si>
-  <si>
-    <t>ADOLFO ANTONIO</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>AZAEL</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>ANGEL ALEXIS</t>
   </si>
   <si>
     <t>ROSA JATZIRI</t>
@@ -2128,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -3353,27 +3353,27 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>72.73</v>
       </c>
       <c r="G5">
+        <v>27.27</v>
+      </c>
+      <c r="H5">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
         <v>18.18</v>
-      </c>
-      <c r="H5">
-        <v>7.9</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>27.27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -3382,25 +3382,25 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>72.73</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="G6">
-        <v>27.27</v>
+        <v>15.15</v>
       </c>
       <c r="H6">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>18.18</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>33</v>
@@ -3474,7 +3474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3512,10 +3512,10 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -3532,16 +3532,16 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -3572,10 +3572,10 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -3592,16 +3592,16 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3612,16 +3612,16 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3632,10 +3632,10 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -3652,10 +3652,10 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -3672,10 +3672,10 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -3692,16 +3692,16 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3712,10 +3712,10 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -3732,16 +3732,16 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3752,10 +3752,10 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -3772,16 +3772,16 @@
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3792,10 +3792,10 @@
         <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -3812,16 +3812,16 @@
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3832,16 +3832,16 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3852,10 +3852,10 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -3872,16 +3872,16 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3892,10 +3892,10 @@
         <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -3912,10 +3912,10 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -3932,10 +3932,10 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -3952,16 +3952,16 @@
         <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3972,10 +3972,10 @@
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -3992,10 +3992,10 @@
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -4012,16 +4012,16 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4032,16 +4032,16 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4052,10 +4052,10 @@
         <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -4072,10 +4072,10 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -4092,10 +4092,10 @@
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -4112,16 +4112,16 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4132,16 +4132,16 @@
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4152,76 +4152,76 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920287</v>
+        <v>19330051920289</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920289</v>
+        <v>19330051920343</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920343</v>
+        <v>19330051920292</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4229,19 +4229,19 @@
         <v>19330051920292</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4249,16 +4249,16 @@
         <v>19330051920292</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>57</v>
@@ -4269,19 +4269,19 @@
         <v>19330051920292</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4289,39 +4289,39 @@
         <v>19330051920292</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920292</v>
+        <v>19330051920295</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4329,19 +4329,19 @@
         <v>19330051920295</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4349,39 +4349,39 @@
         <v>19330051920295</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920295</v>
+        <v>19330051920443</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4389,58 +4389,38 @@
         <v>19330051920443</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920443</v>
+        <v>19330051920304</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920304</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4486,10 +4466,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -4503,10 +4483,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -4520,10 +4500,10 @@
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4537,10 +4517,10 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -4554,10 +4534,10 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4568,13 +4548,13 @@
         <v>19330051920292</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -4588,10 +4568,10 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -4602,13 +4582,13 @@
         <v>19330051920295</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -4622,10 +4602,10 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4636,13 +4616,13 @@
         <v>19330051920443</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4656,10 +4636,10 @@
         <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4667,16 +4647,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920287</v>
+        <v>19330051920289</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4684,16 +4664,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920289</v>
+        <v>19330051920343</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4701,16 +4681,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920343</v>
+        <v>19330051920304</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4718,30 +4698,30 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920304</v>
+        <v>19330051920270</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920270</v>
+        <v>19330051920272</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
         <v>136</v>
@@ -4752,13 +4732,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920272</v>
+        <v>19330051920269</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>137</v>
@@ -4769,13 +4749,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920269</v>
+        <v>19330051920268</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
         <v>138</v>
@@ -4786,13 +4766,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920268</v>
+        <v>19330051920274</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
         <v>139</v>
@@ -4803,13 +4783,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920274</v>
+        <v>18330051920242</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
         <v>140</v>
@@ -4820,13 +4800,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920242</v>
+        <v>19330051920449</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
@@ -4837,13 +4817,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920449</v>
+        <v>19330051920279</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
         <v>142</v>
@@ -4854,13 +4834,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920279</v>
+        <v>19330051920447</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
         <v>143</v>
@@ -4871,13 +4851,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920447</v>
+        <v>19330051920287</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
         <v>144</v>
@@ -4891,10 +4871,10 @@
         <v>19330051920293</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>145</v>
@@ -4908,10 +4888,10 @@
         <v>19330051920294</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>146</v>
@@ -4925,10 +4905,10 @@
         <v>19330051920296</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
         <v>147</v>
@@ -4942,10 +4922,10 @@
         <v>19330051920297</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>148</v>
@@ -4959,10 +4939,10 @@
         <v>19330051920298</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
         <v>147</v>
@@ -4976,10 +4956,10 @@
         <v>19330051920299</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
         <v>149</v>
@@ -4993,10 +4973,10 @@
         <v>19330051920301</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
@@ -5010,10 +4990,10 @@
         <v>19330051920300</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
@@ -5027,10 +5007,10 @@
         <v>19330051920305</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
         <v>152</v>
@@ -5046,7 +5026,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5087,16 +5067,16 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5104,47 +5084,24 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920287</v>
+        <v>19330051920289</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920289</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4">
         <v>-1</v>
       </c>
     </row>
